--- a/config/game/langs_br.xlsx
+++ b/config/game/langs_br.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\github\DayrlAssKicker\ROXDBGlobal\config\game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andyz0x\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1D0268-E5AD-4DD0-9AE1-CBA0E6693F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D7DB51-9569-455E-A299-22EAA718550C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="28800" windowHeight="15450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="langs" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="936">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="1058">
   <si>
     <t>Key</t>
   </si>
@@ -2843,23 +2843,389 @@
   </si>
   <si>
     <t>pt-BR</t>
+  </si>
+  <si>
+    <t>Anjo</t>
+  </si>
+  <si>
+    <t>Demônio</t>
+  </si>
+  <si>
+    <t>Amorfo</t>
+  </si>
+  <si>
+    <t>Inseto</t>
+  </si>
+  <si>
+    <t>Peixe</t>
+  </si>
+  <si>
+    <t>Demi-Humano</t>
+  </si>
+  <si>
+    <t>Morto-vivo</t>
+  </si>
+  <si>
+    <t>Dragão</t>
+  </si>
+  <si>
+    <t>Planta</t>
+  </si>
+  <si>
+    <t>Bruto</t>
+  </si>
+  <si>
+    <t>Grande</t>
+  </si>
+  <si>
+    <t>Médio</t>
+  </si>
+  <si>
+    <t>Pequeno</t>
+  </si>
+  <si>
+    <t>Nenhum</t>
+  </si>
+  <si>
+    <t>Fogo</t>
+  </si>
+  <si>
+    <t>Água</t>
+  </si>
+  <si>
+    <t>Vento</t>
+  </si>
+  <si>
+    <t>Terra</t>
+  </si>
+  <si>
+    <t>Veneno</t>
+  </si>
+  <si>
+    <t>Sagrado</t>
+  </si>
+  <si>
+    <t>Sombra</t>
+  </si>
+  <si>
+    <t>Fantasma</t>
+  </si>
+  <si>
+    <t>Lunático</t>
+  </si>
+  <si>
+    <t>Ovo de Pecopeco</t>
+  </si>
+  <si>
+    <t>Picky (Concha)</t>
+  </si>
+  <si>
+    <t>Salgueiro</t>
+  </si>
+  <si>
+    <t>Ovo do Besouro-Ladrão</t>
+  </si>
+  <si>
+    <t>Mandrágora</t>
+  </si>
+  <si>
+    <t>Besouro-Ladrão</t>
+  </si>
+  <si>
+    <t>Bebê Selvagem</t>
+  </si>
+  <si>
+    <t>Bebê Lobo do Deserto</t>
+  </si>
+  <si>
+    <t>Besouro-Ladrão Fêmea</t>
+  </si>
+  <si>
+    <t>Plâncton</t>
+  </si>
+  <si>
+    <t>Vespa</t>
+  </si>
+  <si>
+    <t>Besouro-Ladrão Macho</t>
+  </si>
+  <si>
+    <t>Esporo</t>
+  </si>
+  <si>
+    <t>Esporo de Veneno</t>
+  </si>
+  <si>
+    <t>Chonchon de Aço</t>
+  </si>
+  <si>
+    <t>Percevejo</t>
+  </si>
+  <si>
+    <t>Poeira</t>
+  </si>
+  <si>
+    <t>Fumacento</t>
+  </si>
+  <si>
+    <t>Sapo Roda</t>
+  </si>
+  <si>
+    <t>Caramelo</t>
+  </si>
+  <si>
+    <t>Plâncton Morto</t>
+  </si>
+  <si>
+    <t>Zumbi</t>
+  </si>
+  <si>
+    <t>Chifre</t>
+  </si>
+  <si>
+    <t>Hidra</t>
+  </si>
+  <si>
+    <t>Pirata Skel com Machado</t>
+  </si>
+  <si>
+    <t>Esqueleto Pirata</t>
+  </si>
+  <si>
+    <t>Pirata Skel com Adaga</t>
+  </si>
+  <si>
+    <t>Esqueleto Operário</t>
+  </si>
+  <si>
+    <t>Mosca Caçadora</t>
+  </si>
+  <si>
+    <t>Sussuro</t>
+  </si>
+  <si>
+    <t>Névoa</t>
+  </si>
+  <si>
+    <t>Selvagem</t>
+  </si>
+  <si>
+    <t>Anaconda</t>
+  </si>
+  <si>
+    <t>Escorpião</t>
+  </si>
+  <si>
+    <t>Sorrateiro</t>
+  </si>
+  <si>
+    <t>Magnólia</t>
+  </si>
+  <si>
+    <t>Larva Formiga</t>
+  </si>
+  <si>
+    <t>Lobo do Deserto</t>
+  </si>
+  <si>
+    <t>Esqueleto Soldado</t>
+  </si>
+  <si>
+    <t>Esqueleto Arqueiro</t>
+  </si>
+  <si>
+    <t>Fen</t>
+  </si>
+  <si>
+    <t>Múmia</t>
+  </si>
+  <si>
+    <t>Verit</t>
+  </si>
+  <si>
+    <t>Esfera Marinha</t>
+  </si>
+  <si>
+    <t>Isis</t>
+  </si>
+  <si>
+    <t>Peixe-Espada</t>
+  </si>
+  <si>
+    <t>Rabo-de-verme</t>
+  </si>
+  <si>
+    <t>Réquiem</t>
+  </si>
+  <si>
+    <t>Pé Grande</t>
+  </si>
+  <si>
+    <t>Cobra</t>
+  </si>
+  <si>
+    <t>Lobo</t>
+  </si>
+  <si>
+    <t>Esqueleto</t>
+  </si>
+  <si>
+    <t>Anúbis</t>
+  </si>
+  <si>
+    <t>Salgueiro Ancião</t>
+  </si>
+  <si>
+    <t>Grande General</t>
+  </si>
+  <si>
+    <t>Nove Caudas</t>
+  </si>
+  <si>
+    <t>Goblin com Mangual</t>
+  </si>
+  <si>
+    <t>Zumbi Orc</t>
+  </si>
+  <si>
+    <t>Bebê Orc</t>
+  </si>
+  <si>
+    <t>Goblin com Maça</t>
+  </si>
+  <si>
+    <t>Kobold com Maça</t>
+  </si>
+  <si>
+    <t>Esqueleto General</t>
+  </si>
+  <si>
+    <t>Goblin com Martelo</t>
+  </si>
+  <si>
+    <t>Kobold com Martelo</t>
+  </si>
+  <si>
+    <t>Guerreiro Orc</t>
+  </si>
+  <si>
+    <t>Esqueleto Orc</t>
+  </si>
+  <si>
+    <t>Carniçal</t>
+  </si>
+  <si>
+    <t>Goblin com Machado</t>
+  </si>
+  <si>
+    <t>Marionete</t>
+  </si>
+  <si>
+    <t>Sussurro Gigante</t>
+  </si>
+  <si>
+    <t>Petite Terrestre</t>
+  </si>
+  <si>
+    <t>Petite Alado</t>
+  </si>
+  <si>
+    <t>Goblin com Adagua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arqueiro Goblin </t>
+  </si>
+  <si>
+    <t>Arqueiro Orc</t>
+  </si>
+  <si>
+    <t>Kobold Arqueiro</t>
+  </si>
+  <si>
+    <t>Dama Orc</t>
+  </si>
+  <si>
+    <t>Goblin a Vapor</t>
+  </si>
+  <si>
+    <t>Kobold com Machado</t>
+  </si>
+  <si>
+    <t>Grão Orc</t>
+  </si>
+  <si>
+    <t>Pesadelo</t>
+  </si>
+  <si>
+    <t>Fantasma do Vento</t>
+  </si>
+  <si>
+    <t>Alma Penada</t>
+  </si>
+  <si>
+    <t>Arma</t>
+  </si>
+  <si>
+    <t>Armadura</t>
+  </si>
+  <si>
+    <t>Adereço</t>
+  </si>
+  <si>
+    <t>Capa</t>
+  </si>
+  <si>
+    <t>Sapatos</t>
+  </si>
+  <si>
+    <t>Acessório</t>
+  </si>
+  <si>
+    <t>Carta Branca</t>
+  </si>
+  <si>
+    <t>Carta Azul</t>
+  </si>
+  <si>
+    <t>Carta Elite Azul</t>
+  </si>
+  <si>
+    <t>Carta Lendária</t>
+  </si>
+  <si>
+    <t>Ataque</t>
+  </si>
+  <si>
+    <t>Defesa</t>
+  </si>
+  <si>
+    <t>Atributo</t>
+  </si>
+  <si>
+    <t>Função</t>
+  </si>
+  <si>
+    <t>Encantamento</t>
+  </si>
+  <si>
+    <t>Resistência</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2889,7 +3255,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -3229,18 +3595,18 @@
   <dimension ref="A1:D382"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="59.58203125" customWidth="1"/>
+    <col min="2" max="2" width="59.625" customWidth="1"/>
     <col min="3" max="3" width="50" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="4" max="4" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3254,7 +3620,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3264,8 +3630,11 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -3275,8 +3644,11 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -3286,8 +3658,11 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -3297,8 +3672,11 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -3308,8 +3686,11 @@
       <c r="C6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -3319,8 +3700,11 @@
       <c r="C7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -3330,8 +3714,11 @@
       <c r="C8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -3341,8 +3728,11 @@
       <c r="C9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -3352,8 +3742,11 @@
       <c r="C10" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -3363,8 +3756,11 @@
       <c r="C11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -3374,8 +3770,11 @@
       <c r="C12" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -3385,8 +3784,11 @@
       <c r="C13" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -3396,8 +3798,11 @@
       <c r="C14" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>41</v>
       </c>
@@ -3407,8 +3812,11 @@
       <c r="C15" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -3418,8 +3826,11 @@
       <c r="C16" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>47</v>
       </c>
@@ -3429,8 +3840,11 @@
       <c r="C17" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>50</v>
       </c>
@@ -3440,8 +3854,11 @@
       <c r="C18" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -3451,8 +3868,11 @@
       <c r="C19" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -3462,8 +3882,11 @@
       <c r="C20" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>59</v>
       </c>
@@ -3473,8 +3896,11 @@
       <c r="C21" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>62</v>
       </c>
@@ -3484,8 +3910,11 @@
       <c r="C22" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>65</v>
       </c>
@@ -3495,8 +3924,11 @@
       <c r="C23" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>68</v>
       </c>
@@ -3506,8 +3938,11 @@
       <c r="C24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>69</v>
       </c>
@@ -3517,8 +3952,11 @@
       <c r="C25" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>72</v>
       </c>
@@ -3528,8 +3966,11 @@
       <c r="C26" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>75</v>
       </c>
@@ -3539,8 +3980,11 @@
       <c r="C27" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>78</v>
       </c>
@@ -3550,8 +3994,11 @@
       <c r="C28" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -3561,8 +4008,11 @@
       <c r="C29" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>84</v>
       </c>
@@ -3572,8 +4022,11 @@
       <c r="C30" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>87</v>
       </c>
@@ -3583,8 +4036,11 @@
       <c r="C31" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>90</v>
       </c>
@@ -3594,8 +4050,11 @@
       <c r="C32" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>93</v>
       </c>
@@ -3605,8 +4064,11 @@
       <c r="C33" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>96</v>
       </c>
@@ -3616,8 +4078,11 @@
       <c r="C34" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>99</v>
       </c>
@@ -3627,8 +4092,11 @@
       <c r="C35" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>102</v>
       </c>
@@ -3638,8 +4106,11 @@
       <c r="C36" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>105</v>
       </c>
@@ -3649,8 +4120,11 @@
       <c r="C37" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>108</v>
       </c>
@@ -3660,8 +4134,11 @@
       <c r="C38" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>111</v>
       </c>
@@ -3671,8 +4148,11 @@
       <c r="C39" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>114</v>
       </c>
@@ -3682,8 +4162,11 @@
       <c r="C40" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>117</v>
       </c>
@@ -3693,8 +4176,11 @@
       <c r="C41" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>120</v>
       </c>
@@ -3704,8 +4190,11 @@
       <c r="C42" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>123</v>
       </c>
@@ -3715,8 +4204,11 @@
       <c r="C43" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>126</v>
       </c>
@@ -3726,8 +4218,11 @@
       <c r="C44" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>129</v>
       </c>
@@ -3737,8 +4232,11 @@
       <c r="C45" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>132</v>
       </c>
@@ -3748,8 +4246,11 @@
       <c r="C46" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>135</v>
       </c>
@@ -3759,8 +4260,11 @@
       <c r="C47" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>138</v>
       </c>
@@ -3770,8 +4274,11 @@
       <c r="C48" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>141</v>
       </c>
@@ -3781,8 +4288,11 @@
       <c r="C49" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>144</v>
       </c>
@@ -3792,8 +4302,11 @@
       <c r="C50" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>147</v>
       </c>
@@ -3803,8 +4316,11 @@
       <c r="C51" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>150</v>
       </c>
@@ -3814,8 +4330,11 @@
       <c r="C52" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>153</v>
       </c>
@@ -3825,8 +4344,11 @@
       <c r="C53" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>156</v>
       </c>
@@ -3836,8 +4358,11 @@
       <c r="C54" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>159</v>
       </c>
@@ -3847,8 +4372,11 @@
       <c r="C55" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>162</v>
       </c>
@@ -3858,8 +4386,11 @@
       <c r="C56" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>165</v>
       </c>
@@ -3869,8 +4400,11 @@
       <c r="C57" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>168</v>
       </c>
@@ -3880,8 +4414,11 @@
       <c r="C58" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>171</v>
       </c>
@@ -3891,8 +4428,11 @@
       <c r="C59" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>174</v>
       </c>
@@ -3902,8 +4442,11 @@
       <c r="C60" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>177</v>
       </c>
@@ -3913,8 +4456,11 @@
       <c r="C61" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>180</v>
       </c>
@@ -3924,8 +4470,11 @@
       <c r="C62" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>183</v>
       </c>
@@ -3935,8 +4484,11 @@
       <c r="C63" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>186</v>
       </c>
@@ -3946,8 +4498,11 @@
       <c r="C64" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>189</v>
       </c>
@@ -3957,8 +4512,11 @@
       <c r="C65" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>192</v>
       </c>
@@ -3968,8 +4526,11 @@
       <c r="C66" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>195</v>
       </c>
@@ -3979,8 +4540,11 @@
       <c r="C67" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>198</v>
       </c>
@@ -3990,8 +4554,11 @@
       <c r="C68" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>201</v>
       </c>
@@ -4001,8 +4568,11 @@
       <c r="C69" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>204</v>
       </c>
@@ -4012,8 +4582,11 @@
       <c r="C70" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>207</v>
       </c>
@@ -4023,8 +4596,11 @@
       <c r="C71" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>210</v>
       </c>
@@ -4034,8 +4610,11 @@
       <c r="C72" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>213</v>
       </c>
@@ -4045,8 +4624,11 @@
       <c r="C73" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>216</v>
       </c>
@@ -4056,8 +4638,11 @@
       <c r="C74" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>219</v>
       </c>
@@ -4067,8 +4652,11 @@
       <c r="C75" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>222</v>
       </c>
@@ -4078,8 +4666,11 @@
       <c r="C76" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>225</v>
       </c>
@@ -4089,8 +4680,11 @@
       <c r="C77" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>228</v>
       </c>
@@ -4100,8 +4694,11 @@
       <c r="C78" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>231</v>
       </c>
@@ -4111,8 +4708,11 @@
       <c r="C79" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>234</v>
       </c>
@@ -4122,8 +4722,11 @@
       <c r="C80" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>237</v>
       </c>
@@ -4133,8 +4736,11 @@
       <c r="C81" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>240</v>
       </c>
@@ -4144,8 +4750,11 @@
       <c r="C82" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>243</v>
       </c>
@@ -4155,8 +4764,11 @@
       <c r="C83" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>246</v>
       </c>
@@ -4166,8 +4778,11 @@
       <c r="C84" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>249</v>
       </c>
@@ -4177,8 +4792,11 @@
       <c r="C85" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>252</v>
       </c>
@@ -4188,8 +4806,11 @@
       <c r="C86" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>255</v>
       </c>
@@ -4199,8 +4820,11 @@
       <c r="C87" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>258</v>
       </c>
@@ -4210,8 +4834,11 @@
       <c r="C88" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>261</v>
       </c>
@@ -4221,8 +4848,11 @@
       <c r="C89" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>264</v>
       </c>
@@ -4232,8 +4862,11 @@
       <c r="C90" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>267</v>
       </c>
@@ -4243,8 +4876,11 @@
       <c r="C91" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>270</v>
       </c>
@@ -4254,8 +4890,11 @@
       <c r="C92" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>273</v>
       </c>
@@ -4265,8 +4904,11 @@
       <c r="C93" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>276</v>
       </c>
@@ -4276,8 +4918,11 @@
       <c r="C94" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>279</v>
       </c>
@@ -4287,8 +4932,11 @@
       <c r="C95" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>282</v>
       </c>
@@ -4298,8 +4946,11 @@
       <c r="C96" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>285</v>
       </c>
@@ -4309,8 +4960,11 @@
       <c r="C97" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>288</v>
       </c>
@@ -4320,8 +4974,11 @@
       <c r="C98" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>291</v>
       </c>
@@ -4331,8 +4988,11 @@
       <c r="C99" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>294</v>
       </c>
@@ -4342,8 +5002,11 @@
       <c r="C100" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>297</v>
       </c>
@@ -4353,8 +5016,11 @@
       <c r="C101" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>300</v>
       </c>
@@ -4364,8 +5030,11 @@
       <c r="C102" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>303</v>
       </c>
@@ -4375,8 +5044,11 @@
       <c r="C103" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>306</v>
       </c>
@@ -4386,8 +5058,11 @@
       <c r="C104" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>309</v>
       </c>
@@ -4397,8 +5072,11 @@
       <c r="C105" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>312</v>
       </c>
@@ -4408,8 +5086,11 @@
       <c r="C106" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D106" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>315</v>
       </c>
@@ -4419,8 +5100,11 @@
       <c r="C107" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>318</v>
       </c>
@@ -4430,8 +5114,11 @@
       <c r="C108" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>321</v>
       </c>
@@ -4441,8 +5128,11 @@
       <c r="C109" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D109" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
         <v>324</v>
       </c>
@@ -4452,8 +5142,11 @@
       <c r="C110" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D110" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
         <v>327</v>
       </c>
@@ -4463,8 +5156,11 @@
       <c r="C111" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D111" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
         <v>330</v>
       </c>
@@ -4474,8 +5170,11 @@
       <c r="C112" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
         <v>333</v>
       </c>
@@ -4485,8 +5184,11 @@
       <c r="C113" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
         <v>336</v>
       </c>
@@ -4496,8 +5198,11 @@
       <c r="C114" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
         <v>339</v>
       </c>
@@ -4507,8 +5212,11 @@
       <c r="C115" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
         <v>342</v>
       </c>
@@ -4518,8 +5226,11 @@
       <c r="C116" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
         <v>345</v>
       </c>
@@ -4529,8 +5240,11 @@
       <c r="C117" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
         <v>348</v>
       </c>
@@ -4540,8 +5254,11 @@
       <c r="C118" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
         <v>351</v>
       </c>
@@ -4551,8 +5268,11 @@
       <c r="C119" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D119" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
         <v>354</v>
       </c>
@@ -4562,8 +5282,11 @@
       <c r="C120" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D120" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
         <v>357</v>
       </c>
@@ -4573,8 +5296,11 @@
       <c r="C121" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D121" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
         <v>360</v>
       </c>
@@ -4584,8 +5310,11 @@
       <c r="C122" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D122" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
         <v>363</v>
       </c>
@@ -4595,8 +5324,11 @@
       <c r="C123" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D123" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
         <v>366</v>
       </c>
@@ -4606,8 +5338,11 @@
       <c r="C124" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D124" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
         <v>369</v>
       </c>
@@ -4617,8 +5352,11 @@
       <c r="C125" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D125" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
         <v>372</v>
       </c>
@@ -4628,8 +5366,11 @@
       <c r="C126" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D126" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
         <v>375</v>
       </c>
@@ -4639,8 +5380,11 @@
       <c r="C127" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D127" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
         <v>378</v>
       </c>
@@ -4650,8 +5394,11 @@
       <c r="C128" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D128" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
         <v>381</v>
       </c>
@@ -4661,8 +5408,11 @@
       <c r="C129" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D129" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
         <v>384</v>
       </c>
@@ -4672,8 +5422,11 @@
       <c r="C130" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D130" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
         <v>387</v>
       </c>
@@ -4683,8 +5436,11 @@
       <c r="C131" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D131" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
         <v>390</v>
       </c>
@@ -4694,8 +5450,11 @@
       <c r="C132" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D132" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
         <v>393</v>
       </c>
@@ -4705,8 +5464,11 @@
       <c r="C133" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D133" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
         <v>396</v>
       </c>
@@ -4716,8 +5478,11 @@
       <c r="C134" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D134" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
       <c r="A135" t="s">
         <v>399</v>
       </c>
@@ -4727,8 +5492,11 @@
       <c r="C135" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D135" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
       <c r="A136" t="s">
         <v>402</v>
       </c>
@@ -4738,8 +5506,11 @@
       <c r="C136" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D136" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
       <c r="A137" t="s">
         <v>405</v>
       </c>
@@ -4749,8 +5520,11 @@
       <c r="C137" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D137" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
       <c r="A138" t="s">
         <v>408</v>
       </c>
@@ -4760,8 +5534,11 @@
       <c r="C138" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D138" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
       <c r="A139" t="s">
         <v>411</v>
       </c>
@@ -4771,8 +5548,11 @@
       <c r="C139" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D139" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
         <v>414</v>
       </c>
@@ -4782,8 +5562,11 @@
       <c r="C140" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D140" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
         <v>417</v>
       </c>
@@ -4793,8 +5576,11 @@
       <c r="C141" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D141" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
         <v>420</v>
       </c>
@@ -4804,8 +5590,11 @@
       <c r="C142" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D142" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
       <c r="A143" t="s">
         <v>423</v>
       </c>
@@ -4815,8 +5604,11 @@
       <c r="C143" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D143" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
         <v>426</v>
       </c>
@@ -4826,8 +5618,11 @@
       <c r="C144" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D144" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
       <c r="A145" t="s">
         <v>429</v>
       </c>
@@ -4837,8 +5632,11 @@
       <c r="C145" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D145" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
       <c r="A146" t="s">
         <v>432</v>
       </c>
@@ -4848,8 +5646,11 @@
       <c r="C146" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D146" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
       <c r="A147" t="s">
         <v>435</v>
       </c>
@@ -4859,8 +5660,11 @@
       <c r="C147" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D147" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
       <c r="A148" t="s">
         <v>438</v>
       </c>
@@ -4870,8 +5674,11 @@
       <c r="C148" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D148" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
       <c r="A149" t="s">
         <v>441</v>
       </c>
@@ -4881,8 +5688,11 @@
       <c r="C149" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D149" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
       <c r="A150" t="s">
         <v>444</v>
       </c>
@@ -4892,8 +5702,11 @@
       <c r="C150" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D150" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
       <c r="A151" t="s">
         <v>447</v>
       </c>
@@ -4903,8 +5716,11 @@
       <c r="C151" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D151" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
       <c r="A152" t="s">
         <v>450</v>
       </c>
@@ -4914,8 +5730,11 @@
       <c r="C152" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D152" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
       <c r="A153" t="s">
         <v>453</v>
       </c>
@@ -4925,8 +5744,11 @@
       <c r="C153" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D153" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
       <c r="A154" t="s">
         <v>456</v>
       </c>
@@ -4936,8 +5758,11 @@
       <c r="C154" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D154" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
       <c r="A155" t="s">
         <v>459</v>
       </c>
@@ -4947,8 +5772,11 @@
       <c r="C155" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D155" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
       <c r="A156" t="s">
         <v>462</v>
       </c>
@@ -4959,7 +5787,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4">
       <c r="A157" t="s">
         <v>465</v>
       </c>
@@ -4969,8 +5797,11 @@
       <c r="C157" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D157" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
       <c r="A158" t="s">
         <v>468</v>
       </c>
@@ -4981,7 +5812,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4">
       <c r="A159" t="s">
         <v>471</v>
       </c>
@@ -4991,8 +5822,11 @@
       <c r="C159" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D159" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
       <c r="A160" t="s">
         <v>474</v>
       </c>
@@ -5002,8 +5836,11 @@
       <c r="C160" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D160" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
       <c r="A161" t="s">
         <v>477</v>
       </c>
@@ -5013,8 +5850,11 @@
       <c r="C161" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D161" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
       <c r="A162" t="s">
         <v>480</v>
       </c>
@@ -5025,7 +5865,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4">
       <c r="A163" t="s">
         <v>483</v>
       </c>
@@ -5035,8 +5875,11 @@
       <c r="C163" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D163" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
       <c r="A164" t="s">
         <v>486</v>
       </c>
@@ -5046,8 +5889,11 @@
       <c r="C164" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D164" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
       <c r="A165" t="s">
         <v>489</v>
       </c>
@@ -5057,8 +5903,11 @@
       <c r="C165" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D165" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
       <c r="A166" t="s">
         <v>492</v>
       </c>
@@ -5069,7 +5918,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4">
       <c r="A167" t="s">
         <v>495</v>
       </c>
@@ -5079,8 +5928,11 @@
       <c r="C167" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D167" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
       <c r="A168" t="s">
         <v>498</v>
       </c>
@@ -5091,7 +5943,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4">
       <c r="A169" t="s">
         <v>501</v>
       </c>
@@ -5101,8 +5953,11 @@
       <c r="C169" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D169" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
       <c r="A170" t="s">
         <v>504</v>
       </c>
@@ -5112,8 +5967,11 @@
       <c r="C170" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D170" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
       <c r="A171" t="s">
         <v>507</v>
       </c>
@@ -5123,8 +5981,11 @@
       <c r="C171" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D171" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
       <c r="A172" t="s">
         <v>510</v>
       </c>
@@ -5135,7 +5996,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4">
       <c r="A173" t="s">
         <v>513</v>
       </c>
@@ -5145,8 +6006,11 @@
       <c r="C173" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D173" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
       <c r="A174" t="s">
         <v>516</v>
       </c>
@@ -5157,7 +6021,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4">
       <c r="A175" t="s">
         <v>519</v>
       </c>
@@ -5168,7 +6032,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4">
       <c r="A176" t="s">
         <v>522</v>
       </c>
@@ -5179,7 +6043,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3">
       <c r="A177" t="s">
         <v>525</v>
       </c>
@@ -5190,7 +6054,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3">
       <c r="A178" t="s">
         <v>528</v>
       </c>
@@ -5201,7 +6065,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3">
       <c r="A179" t="s">
         <v>531</v>
       </c>
@@ -5212,7 +6076,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3">
       <c r="A180" t="s">
         <v>534</v>
       </c>
@@ -5220,7 +6084,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3">
       <c r="A181" t="s">
         <v>536</v>
       </c>
@@ -5228,7 +6092,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3">
       <c r="A182" t="s">
         <v>538</v>
       </c>
@@ -5236,7 +6100,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3">
       <c r="A183" t="s">
         <v>540</v>
       </c>
@@ -5244,7 +6108,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3">
       <c r="A184" t="s">
         <v>542</v>
       </c>
@@ -5252,7 +6116,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3">
       <c r="A185" t="s">
         <v>544</v>
       </c>
@@ -5260,7 +6124,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3">
       <c r="A186" t="s">
         <v>546</v>
       </c>
@@ -5268,7 +6132,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3">
       <c r="A187" t="s">
         <v>548</v>
       </c>
@@ -5276,7 +6140,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3">
       <c r="A188" t="s">
         <v>550</v>
       </c>
@@ -5284,7 +6148,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3">
       <c r="A189" t="s">
         <v>552</v>
       </c>
@@ -5292,7 +6156,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3">
       <c r="A190" t="s">
         <v>554</v>
       </c>
@@ -5300,7 +6164,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3">
       <c r="A191" t="s">
         <v>556</v>
       </c>
@@ -5308,7 +6172,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3">
       <c r="A192" t="s">
         <v>558</v>
       </c>
@@ -5316,7 +6180,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4">
       <c r="A193" t="s">
         <v>560</v>
       </c>
@@ -5324,7 +6188,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4">
       <c r="A194" t="s">
         <v>562</v>
       </c>
@@ -5332,7 +6196,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4">
       <c r="A195" t="s">
         <v>564</v>
       </c>
@@ -5340,7 +6204,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4">
       <c r="A196" t="s">
         <v>566</v>
       </c>
@@ -5348,7 +6212,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4">
       <c r="A197" t="s">
         <v>568</v>
       </c>
@@ -5356,7 +6220,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4">
       <c r="A198" t="s">
         <v>570</v>
       </c>
@@ -5364,7 +6228,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4">
       <c r="A199" t="s">
         <v>572</v>
       </c>
@@ -5372,7 +6236,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4">
       <c r="A200" t="s">
         <v>574</v>
       </c>
@@ -5380,7 +6244,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4">
       <c r="A201" t="s">
         <v>576</v>
       </c>
@@ -5388,7 +6252,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4">
       <c r="A202" t="s">
         <v>578</v>
       </c>
@@ -5398,8 +6262,11 @@
       <c r="C202" t="s">
         <v>925</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D202" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
       <c r="A203" t="s">
         <v>580</v>
       </c>
@@ -5409,8 +6276,11 @@
       <c r="C203" t="s">
         <v>926</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D203" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
       <c r="A204" t="s">
         <v>582</v>
       </c>
@@ -5420,8 +6290,11 @@
       <c r="C204" t="s">
         <v>927</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D204" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
       <c r="A205" t="s">
         <v>584</v>
       </c>
@@ -5431,8 +6304,11 @@
       <c r="C205" t="s">
         <v>928</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D205" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
       <c r="A206" t="s">
         <v>586</v>
       </c>
@@ -5442,8 +6318,11 @@
       <c r="C206" t="s">
         <v>929</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D206" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
       <c r="A207" t="s">
         <v>588</v>
       </c>
@@ -5453,8 +6332,11 @@
       <c r="C207" t="s">
         <v>930</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D207" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
       <c r="A208" t="s">
         <v>590</v>
       </c>
@@ -5464,8 +6346,11 @@
       <c r="C208" t="s">
         <v>931</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D208" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
       <c r="A209" t="s">
         <v>592</v>
       </c>
@@ -5475,8 +6360,11 @@
       <c r="C209" t="s">
         <v>932</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D209" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
       <c r="A210" t="s">
         <v>594</v>
       </c>
@@ -5486,8 +6374,11 @@
       <c r="C210" t="s">
         <v>933</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D210" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
       <c r="A211" t="s">
         <v>596</v>
       </c>
@@ -5497,8 +6388,11 @@
       <c r="C211" t="s">
         <v>934</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D211" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
       <c r="A212" t="s">
         <v>598</v>
       </c>
@@ -5508,8 +6402,11 @@
       <c r="C212" t="s">
         <v>919</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D212" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
       <c r="A213" t="s">
         <v>600</v>
       </c>
@@ -5519,8 +6416,11 @@
       <c r="C213" t="s">
         <v>920</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D213" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
       <c r="A214" t="s">
         <v>602</v>
       </c>
@@ -5530,8 +6430,11 @@
       <c r="C214" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D214" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
       <c r="A215" t="s">
         <v>604</v>
       </c>
@@ -5541,8 +6444,11 @@
       <c r="C215" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D215" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
       <c r="A216" t="s">
         <v>606</v>
       </c>
@@ -5552,8 +6458,11 @@
       <c r="C216" t="s">
         <v>924</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D216" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
       <c r="A217" t="s">
         <v>608</v>
       </c>
@@ -5563,8 +6472,11 @@
       <c r="C217" t="s">
         <v>923</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D217" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
       <c r="A218" t="s">
         <v>610</v>
       </c>
@@ -5575,7 +6487,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4">
       <c r="A219" t="s">
         <v>613</v>
       </c>
@@ -5586,7 +6498,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4">
       <c r="A220" t="s">
         <v>615</v>
       </c>
@@ -5597,7 +6509,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4">
       <c r="A221" t="s">
         <v>617</v>
       </c>
@@ -5608,7 +6520,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4">
       <c r="A222" t="s">
         <v>619</v>
       </c>
@@ -5619,7 +6531,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4">
       <c r="A223" t="s">
         <v>621</v>
       </c>
@@ -5630,7 +6542,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4">
       <c r="A224" t="s">
         <v>622</v>
       </c>
@@ -5641,7 +6553,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3">
       <c r="A225" t="s">
         <v>624</v>
       </c>
@@ -5652,7 +6564,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3">
       <c r="A226" t="s">
         <v>626</v>
       </c>
@@ -5663,7 +6575,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3">
       <c r="A227" t="s">
         <v>628</v>
       </c>
@@ -5674,7 +6586,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3">
       <c r="A228" t="s">
         <v>630</v>
       </c>
@@ -5685,7 +6597,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3">
       <c r="A229" t="s">
         <v>632</v>
       </c>
@@ -5696,7 +6608,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3">
       <c r="A230" t="s">
         <v>633</v>
       </c>
@@ -5707,7 +6619,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3">
       <c r="A231" t="s">
         <v>634</v>
       </c>
@@ -5718,7 +6630,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3">
       <c r="A232" t="s">
         <v>636</v>
       </c>
@@ -5729,7 +6641,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3">
       <c r="A233" t="s">
         <v>638</v>
       </c>
@@ -5740,7 +6652,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3">
       <c r="A234" t="s">
         <v>639</v>
       </c>
@@ -5751,7 +6663,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3">
       <c r="A235" t="s">
         <v>640</v>
       </c>
@@ -5762,7 +6674,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3">
       <c r="A236" t="s">
         <v>641</v>
       </c>
@@ -5773,7 +6685,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3">
       <c r="A237" t="s">
         <v>643</v>
       </c>
@@ -5784,7 +6696,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3">
       <c r="A238" t="s">
         <v>644</v>
       </c>
@@ -5795,7 +6707,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3">
       <c r="A239" t="s">
         <v>645</v>
       </c>
@@ -5806,7 +6718,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3">
       <c r="A240" t="s">
         <v>646</v>
       </c>
@@ -5817,7 +6729,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3">
       <c r="A241" t="s">
         <v>647</v>
       </c>
@@ -5828,7 +6740,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3">
       <c r="A242" t="s">
         <v>648</v>
       </c>
@@ -5839,7 +6751,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3">
       <c r="A243" t="s">
         <v>650</v>
       </c>
@@ -5850,7 +6762,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3">
       <c r="A244" t="s">
         <v>651</v>
       </c>
@@ -5861,7 +6773,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3">
       <c r="A245" t="s">
         <v>652</v>
       </c>
@@ -5872,7 +6784,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3">
       <c r="A246" t="s">
         <v>653</v>
       </c>
@@ -5883,7 +6795,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3">
       <c r="A247" t="s">
         <v>655</v>
       </c>
@@ -5894,7 +6806,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3">
       <c r="A248" t="s">
         <v>656</v>
       </c>
@@ -5905,7 +6817,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3">
       <c r="A249" t="s">
         <v>658</v>
       </c>
@@ -5916,7 +6828,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3">
       <c r="A250" t="s">
         <v>660</v>
       </c>
@@ -5927,7 +6839,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3">
       <c r="A251" t="s">
         <v>662</v>
       </c>
@@ -5938,7 +6850,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3">
       <c r="A252" t="s">
         <v>663</v>
       </c>
@@ -5949,7 +6861,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3">
       <c r="A253" t="s">
         <v>665</v>
       </c>
@@ -5960,7 +6872,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3">
       <c r="A254" t="s">
         <v>666</v>
       </c>
@@ -5971,7 +6883,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3">
       <c r="A255" t="s">
         <v>667</v>
       </c>
@@ -5982,7 +6894,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3">
       <c r="A256" t="s">
         <v>669</v>
       </c>
@@ -5993,7 +6905,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3">
       <c r="A257" t="s">
         <v>671</v>
       </c>
@@ -6004,7 +6916,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3">
       <c r="A258" t="s">
         <v>672</v>
       </c>
@@ -6015,7 +6927,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3">
       <c r="A259" t="s">
         <v>674</v>
       </c>
@@ -6026,7 +6938,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3">
       <c r="A260" t="s">
         <v>676</v>
       </c>
@@ -6037,7 +6949,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3">
       <c r="A261" t="s">
         <v>677</v>
       </c>
@@ -6048,7 +6960,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3">
       <c r="A262" t="s">
         <v>679</v>
       </c>
@@ -6059,7 +6971,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3">
       <c r="A263" t="s">
         <v>681</v>
       </c>
@@ -6070,7 +6982,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3">
       <c r="A264" t="s">
         <v>682</v>
       </c>
@@ -6081,7 +6993,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3">
       <c r="A265" t="s">
         <v>683</v>
       </c>
@@ -6092,7 +7004,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3">
       <c r="A266" t="s">
         <v>684</v>
       </c>
@@ -6103,7 +7015,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3">
       <c r="A267" t="s">
         <v>686</v>
       </c>
@@ -6114,7 +7026,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3">
       <c r="A268" t="s">
         <v>688</v>
       </c>
@@ -6125,7 +7037,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3">
       <c r="A269" t="s">
         <v>689</v>
       </c>
@@ -6136,7 +7048,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3">
       <c r="A270" t="s">
         <v>691</v>
       </c>
@@ -6147,7 +7059,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3">
       <c r="A271" t="s">
         <v>692</v>
       </c>
@@ -6158,7 +7070,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3">
       <c r="A272" t="s">
         <v>694</v>
       </c>
@@ -6169,7 +7081,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3">
       <c r="A273" t="s">
         <v>696</v>
       </c>
@@ -6180,7 +7092,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3">
       <c r="A274" t="s">
         <v>698</v>
       </c>
@@ -6191,7 +7103,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3">
       <c r="A275" t="s">
         <v>699</v>
       </c>
@@ -6202,7 +7114,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3">
       <c r="A276" t="s">
         <v>701</v>
       </c>
@@ -6213,7 +7125,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3">
       <c r="A277" t="s">
         <v>702</v>
       </c>
@@ -6224,7 +7136,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3">
       <c r="A278" t="s">
         <v>703</v>
       </c>
@@ -6235,7 +7147,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3">
       <c r="A279" t="s">
         <v>705</v>
       </c>
@@ -6246,7 +7158,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3">
       <c r="A280" t="s">
         <v>706</v>
       </c>
@@ -6257,7 +7169,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3">
       <c r="A281" t="s">
         <v>707</v>
       </c>
@@ -6268,7 +7180,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3">
       <c r="A282" t="s">
         <v>709</v>
       </c>
@@ -6279,7 +7191,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3">
       <c r="A283" t="s">
         <v>711</v>
       </c>
@@ -6290,7 +7202,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3">
       <c r="A284" t="s">
         <v>713</v>
       </c>
@@ -6301,7 +7213,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3">
       <c r="A285" t="s">
         <v>714</v>
       </c>
@@ -6312,7 +7224,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3">
       <c r="A286" t="s">
         <v>716</v>
       </c>
@@ -6323,7 +7235,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3">
       <c r="A287" t="s">
         <v>718</v>
       </c>
@@ -6334,7 +7246,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3">
       <c r="A288" t="s">
         <v>719</v>
       </c>
@@ -6345,7 +7257,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3">
       <c r="A289" t="s">
         <v>721</v>
       </c>
@@ -6356,7 +7268,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3">
       <c r="A290" t="s">
         <v>723</v>
       </c>
@@ -6367,7 +7279,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3">
       <c r="A291" t="s">
         <v>724</v>
       </c>
@@ -6378,7 +7290,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3">
       <c r="A292" t="s">
         <v>726</v>
       </c>
@@ -6389,7 +7301,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3">
       <c r="A293" t="s">
         <v>727</v>
       </c>
@@ -6400,7 +7312,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3">
       <c r="A294" t="s">
         <v>728</v>
       </c>
@@ -6411,7 +7323,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3">
       <c r="A295" t="s">
         <v>730</v>
       </c>
@@ -6422,7 +7334,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3">
       <c r="A296" t="s">
         <v>732</v>
       </c>
@@ -6433,7 +7345,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3">
       <c r="A297" t="s">
         <v>733</v>
       </c>
@@ -6444,7 +7356,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3">
       <c r="A298" t="s">
         <v>734</v>
       </c>
@@ -6455,7 +7367,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3">
       <c r="A299" t="s">
         <v>735</v>
       </c>
@@ -6466,7 +7378,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3">
       <c r="A300" t="s">
         <v>737</v>
       </c>
@@ -6477,7 +7389,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3">
       <c r="A301" t="s">
         <v>738</v>
       </c>
@@ -6488,7 +7400,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3">
       <c r="A302" t="s">
         <v>739</v>
       </c>
@@ -6499,7 +7411,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3">
       <c r="A303" t="s">
         <v>741</v>
       </c>
@@ -6510,7 +7422,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3">
       <c r="A304" t="s">
         <v>742</v>
       </c>
@@ -6521,7 +7433,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3">
       <c r="A305" t="s">
         <v>744</v>
       </c>
@@ -6532,7 +7444,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3">
       <c r="A306" t="s">
         <v>746</v>
       </c>
@@ -6543,7 +7455,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3">
       <c r="A307" t="s">
         <v>748</v>
       </c>
@@ -6554,7 +7466,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3">
       <c r="A308" t="s">
         <v>750</v>
       </c>
@@ -6565,7 +7477,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3">
       <c r="A309" t="s">
         <v>752</v>
       </c>
@@ -6576,7 +7488,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3">
       <c r="A310" t="s">
         <v>753</v>
       </c>
@@ -6587,7 +7499,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3">
       <c r="A311" t="s">
         <v>755</v>
       </c>
@@ -6598,7 +7510,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3">
       <c r="A312" t="s">
         <v>756</v>
       </c>
@@ -6609,7 +7521,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3">
       <c r="A313" t="s">
         <v>757</v>
       </c>
@@ -6620,7 +7532,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3">
       <c r="A314" t="s">
         <v>758</v>
       </c>
@@ -6631,7 +7543,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3">
       <c r="A315" t="s">
         <v>760</v>
       </c>
@@ -6642,7 +7554,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3">
       <c r="A316" t="s">
         <v>761</v>
       </c>
@@ -6653,7 +7565,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3">
       <c r="A317" t="s">
         <v>763</v>
       </c>
@@ -6664,7 +7576,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3">
       <c r="A318" t="s">
         <v>764</v>
       </c>
@@ -6675,7 +7587,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3">
       <c r="A319" t="s">
         <v>766</v>
       </c>
@@ -6686,7 +7598,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3">
       <c r="A320" t="s">
         <v>768</v>
       </c>
@@ -6697,7 +7609,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3">
       <c r="A321" t="s">
         <v>769</v>
       </c>
@@ -6708,7 +7620,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3">
       <c r="A322" t="s">
         <v>771</v>
       </c>
@@ -6719,7 +7631,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3">
       <c r="A323" t="s">
         <v>773</v>
       </c>
@@ -6730,7 +7642,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3">
       <c r="A324" t="s">
         <v>775</v>
       </c>
@@ -6741,7 +7653,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3">
       <c r="A325" t="s">
         <v>776</v>
       </c>
@@ -6752,7 +7664,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3">
       <c r="A326" t="s">
         <v>777</v>
       </c>
@@ -6763,7 +7675,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3">
       <c r="A327" t="s">
         <v>779</v>
       </c>
@@ -6774,7 +7686,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3">
       <c r="A328" t="s">
         <v>780</v>
       </c>
@@ -6785,7 +7697,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3">
       <c r="A329" t="s">
         <v>782</v>
       </c>
@@ -6796,7 +7708,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3">
       <c r="A330" t="s">
         <v>784</v>
       </c>
@@ -6807,7 +7719,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3">
       <c r="A331" t="s">
         <v>785</v>
       </c>
@@ -6818,7 +7730,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3">
       <c r="A332" t="s">
         <v>787</v>
       </c>
@@ -6829,7 +7741,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3">
       <c r="A333" t="s">
         <v>789</v>
       </c>
@@ -6840,7 +7752,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3">
       <c r="A334" t="s">
         <v>791</v>
       </c>
@@ -6851,7 +7763,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3">
       <c r="A335" t="s">
         <v>792</v>
       </c>
@@ -6862,7 +7774,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3">
       <c r="A336" t="s">
         <v>794</v>
       </c>
@@ -6873,7 +7785,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3">
       <c r="A337" t="s">
         <v>796</v>
       </c>
@@ -6884,7 +7796,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3">
       <c r="A338" t="s">
         <v>798</v>
       </c>
@@ -6895,7 +7807,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3">
       <c r="A339" t="s">
         <v>800</v>
       </c>
@@ -6906,7 +7818,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3">
       <c r="A340" t="s">
         <v>801</v>
       </c>
@@ -6917,7 +7829,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3">
       <c r="A341" t="s">
         <v>803</v>
       </c>
@@ -6928,7 +7840,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3">
       <c r="A342" t="s">
         <v>805</v>
       </c>
@@ -6939,7 +7851,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3">
       <c r="A343" t="s">
         <v>807</v>
       </c>
@@ -6950,7 +7862,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3">
       <c r="A344" t="s">
         <v>809</v>
       </c>
@@ -6961,7 +7873,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3">
       <c r="A345" t="s">
         <v>811</v>
       </c>
@@ -6972,7 +7884,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3">
       <c r="A346" t="s">
         <v>812</v>
       </c>
@@ -6983,7 +7895,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3">
       <c r="A347" t="s">
         <v>813</v>
       </c>
@@ -6994,7 +7906,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3">
       <c r="A348" t="s">
         <v>814</v>
       </c>
@@ -7005,7 +7917,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3">
       <c r="A349" t="s">
         <v>816</v>
       </c>
@@ -7016,7 +7928,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3">
       <c r="A350" t="s">
         <v>818</v>
       </c>
@@ -7027,7 +7939,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3">
       <c r="A351" t="s">
         <v>820</v>
       </c>
@@ -7038,7 +7950,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3">
       <c r="A352" t="s">
         <v>821</v>
       </c>
@@ -7049,7 +7961,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3">
       <c r="A353" t="s">
         <v>823</v>
       </c>
@@ -7060,7 +7972,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3">
       <c r="A354" t="s">
         <v>825</v>
       </c>
@@ -7071,7 +7983,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3">
       <c r="A355" t="s">
         <v>826</v>
       </c>
@@ -7082,7 +7994,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3">
       <c r="A356" t="s">
         <v>828</v>
       </c>
@@ -7093,7 +8005,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3">
       <c r="A357" t="s">
         <v>830</v>
       </c>
@@ -7104,7 +8016,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3">
       <c r="A358" t="s">
         <v>832</v>
       </c>
@@ -7115,7 +8027,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3">
       <c r="A359" t="s">
         <v>834</v>
       </c>
@@ -7126,7 +8038,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3">
       <c r="A360" t="s">
         <v>836</v>
       </c>
@@ -7137,7 +8049,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3">
       <c r="A361" t="s">
         <v>838</v>
       </c>
@@ -7148,7 +8060,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3">
       <c r="A362" t="s">
         <v>839</v>
       </c>
@@ -7159,7 +8071,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3">
       <c r="A363" t="s">
         <v>840</v>
       </c>
@@ -7170,7 +8082,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3">
       <c r="A364" t="s">
         <v>841</v>
       </c>
@@ -7181,7 +8093,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3">
       <c r="A365" t="s">
         <v>842</v>
       </c>
@@ -7192,7 +8104,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3">
       <c r="A366" t="s">
         <v>843</v>
       </c>
@@ -7203,7 +8115,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3">
       <c r="A367" t="s">
         <v>844</v>
       </c>
@@ -7214,7 +8126,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3">
       <c r="A368" t="s">
         <v>846</v>
       </c>
@@ -7225,7 +8137,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3">
       <c r="A369" t="s">
         <v>848</v>
       </c>
@@ -7236,7 +8148,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3">
       <c r="A370" t="s">
         <v>849</v>
       </c>
@@ -7247,7 +8159,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3">
       <c r="A371" t="s">
         <v>851</v>
       </c>
@@ -7258,7 +8170,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3">
       <c r="A372" t="s">
         <v>852</v>
       </c>
@@ -7269,7 +8181,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3">
       <c r="A373" t="s">
         <v>853</v>
       </c>
@@ -7280,7 +8192,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3">
       <c r="A374" t="s">
         <v>854</v>
       </c>
@@ -7291,7 +8203,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3">
       <c r="A375" t="s">
         <v>855</v>
       </c>
@@ -7302,7 +8214,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3">
       <c r="A376" t="s">
         <v>856</v>
       </c>
@@ -7313,7 +8225,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3">
       <c r="A377" t="s">
         <v>857</v>
       </c>
@@ -7324,7 +8236,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3">
       <c r="A378" t="s">
         <v>858</v>
       </c>
@@ -7335,7 +8247,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3">
       <c r="A379" t="s">
         <v>859</v>
       </c>
@@ -7346,7 +8258,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3">
       <c r="A380" t="s">
         <v>860</v>
       </c>
@@ -7357,7 +8269,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3">
       <c r="A381" t="s">
         <v>861</v>
       </c>
@@ -7368,7 +8280,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3">
       <c r="A382" t="s">
         <v>862</v>
       </c>
@@ -7384,7 +8296,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:C8 A326:C326 A324 C324 A236:C236 A233 C233 A234 C234 A235 C235 A238:C238 A237 C237 A240:C240 A239 C239 A242:C250 A241 C241 A252:C253 A251 C251 A255:C259 A254 C254 A261:C262 A260 C260 A264:C267 A263 C263 A269:C276 A268 C268 A278:C286 A277 C277 A288:C289 A287 C287 A291:C292 A290 C290 A294:C295 A293 C293 A299:C299 A296 C296 A297 C297 A298 C298 A302:C302 A300 C300 A301 C301 A304:C308 A303 C303 A310:C310 A309 C309 A314:C314 A311 C311 A312 C312 A313 C313 A316:C319 A315 C315 A321:C323 A320 C320 A325 C325 A328:C329 A327 C327 A331:C333 A330 C330 A335:C338 A334 C334 A340:C346 A339 C339 A348:C350 A347 C347 A352:C353 A351 C351 A355:C360 A354 C354 A367:C368 A361 C361 A362 C362 A363 C363 A364 C364 A365 C365 A366 C366 A370:C370 A369 C369 A382 A371 C371 A372 C372 A373 C373 A374 C374 A375 C375 A376 C376 A377 C377 A378 C378 A379 C379 A380 C380 A381 C381 C382 A10:C201 A9 C9 A218:C232 A212:B212 A213:B213 A214:B214 A215:B215 A216:B216 A217:B217 A211:B211 A202:B202 A203:B203 A204:B204 A205:B205 A206:B206 A207:B207 A208:B208 A209:B209 A210:B210" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:C8 A326:C326 A324 C324 A236:C236 A233 C233 A234 C234 A235 C235 A238:C238 A237 C237 A240:C240 A239 C239 A242:C250 A241 C241 A252:C253 A251 C251 A255:C259 A254 C254 A261:C262 A260 C260 A264:C267 A263 C263 A269:C276 A268 C268 A278:C286 A277 C277 A288:C289 A287 C287 A291:C292 A290 C290 A294:C295 A293 C293 A299:C299 A296 C296 A297 C297 A298 C298 A302:C302 A300 C300 A301 C301 A304:C308 A303 C303 A310:C310 A309 C309 A314:C314 A311 C311 A312 C312 A313 C313 A316:C319 A315 C315 A321:C323 A320 C320 A325 C325 A328:C329 A327 C327 A331:C333 A330 C330 A335:C338 A334 C334 A340:C346 A339 C339 A348:C350 A347 C347 A352:C353 A351 C351 A355:C360 A354 C354 A367:C368 A361 C361 A362 C362 A363 C363 A364 C364 A365 C365 A366 C366 A370:C370 A369 C369 A382 A371 C371 A372 C372 A373 C373 A374 C374 A375 C375 A376 C376 A377 C377 A378 C378 A379 C379 A380 C380 A381 C381 C382 A10:C54 A9 C9 A218:C232 A212:B212 A213:B213 A214:B214 A215:B215 A216:B216 A217:B217 A211:B211 A202:B202 A203:B203 A204:B204 A205:B205 A206:B206 A207:B207 A208:B208 A209:B209 A210:B210 A56:C57 A55:B55 A59:C118 A58:B58 A120:C201 A119:B119" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>